--- a/Documentation/PRTC-dilution-calcs.xlsx
+++ b/Documentation/PRTC-dilution-calcs.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xcalibur\Data\Collaborators\Nunn\Emma\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28331"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10980" windowHeight="11085"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="18580" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -187,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,23 +407,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -484,7 +482,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -506,7 +504,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -528,12 +526,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -541,7 +539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -549,7 +547,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -557,7 +555,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -566,7 +564,7 @@
         <v>69.56</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -574,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -582,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -593,6 +591,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>